--- a/api/clv2/xlsx/en/HumanitarianPlan.xlsx
+++ b/api/clv2/xlsx/en/HumanitarianPlan.xlsx
@@ -25,15 +25,15 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:plan-year</t>
+  </si>
+  <si>
+    <t>codeforiati:plan-type</t>
+  </si>
+  <si>
     <t>codeforiati:plan-end-date</t>
   </si>
   <si>
-    <t>codeforiati:plan-type</t>
-  </si>
-  <si>
-    <t>codeforiati:plan-year</t>
-  </si>
-  <si>
     <t>codeforiati:plan-start-date</t>
   </si>
   <si>
@@ -46,15 +46,15 @@
     <t>active</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Humanitarian needs and response plan</t>
+  </si>
+  <si>
     <t>2025-12-31</t>
   </si>
   <si>
-    <t>Humanitarian needs and response plan</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
     <t>2025-01-01</t>
   </si>
   <si>
@@ -73,12 +73,12 @@
     <t>Bangladesh Cyclone Remal and Monsoon Floods Response Plan 2025</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>2025-03-31</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>HBFA25</t>
   </si>
   <si>
@@ -346,12 +346,12 @@
     <t>Afghanistan Humanitarian Needs and Response Plan 2024</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>2024-12-31</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>2024-01-01</t>
   </si>
   <si>
@@ -703,12 +703,12 @@
     <t>Afghanistan Humanitarian Response Plan 2023</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2023-12-31</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>2023-01-01</t>
   </si>
   <si>
@@ -1021,12 +1021,12 @@
     <t>Afghanistan Humanitarian Response Plan 2022</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>2022-12-31</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>2022-01-01</t>
   </si>
   <si>
@@ -1369,12 +1369,12 @@
     <t>Afghanistan Flash Appeal 2021</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>2021-12-31</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>2021-09-01</t>
   </si>
   <si>
@@ -1726,12 +1726,12 @@
     <t>Afghanistan Humanitarian Response Plan 2020</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>2020-12-31</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>2020-01-01</t>
   </si>
   <si>
@@ -2161,12 +2161,12 @@
     <t>Afghanistan Humanitarian Response Plan 2019</t>
   </si>
   <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2019-12-31</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>2019-01-01</t>
   </si>
   <si>
@@ -2398,12 +2398,12 @@
     <t>Afghanistan Humanitarian Response Plan 2018</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
     <t>2018-12-31</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>2018-01-01</t>
   </si>
   <si>
@@ -2623,12 +2623,12 @@
     <t>2017 Europe Situation - Regional Refugee and Migrant Response</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>2017-12-31</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>2017-01-01</t>
   </si>
   <si>
@@ -2911,12 +2911,12 @@
     <t>2016 Europe Situation -Regional Refugee and Migrant Response</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
     <t>2016-12-31</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>2016-01-01</t>
   </si>
   <si>
@@ -3187,15 +3187,15 @@
     <t>Afghanistan Strategic Response Plan 2015</t>
   </si>
   <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Strategic response plan</t>
+  </si>
+  <si>
     <t>2015-12-31</t>
   </si>
   <si>
-    <t>Strategic response plan</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>2015-01-01</t>
   </si>
   <si>
@@ -3418,12 +3418,12 @@
     <t>Afghanistan Strategic Response Plan 2014</t>
   </si>
   <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>2014-12-31</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
     <t>2014-01-01</t>
   </si>
   <si>
@@ -3706,15 +3706,15 @@
     <t>Afghanistan 2013</t>
   </si>
   <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>Consolidated appeals process</t>
+  </si>
+  <si>
     <t>2013-12-31</t>
   </si>
   <si>
-    <t>Consolidated appeals process</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
     <t>CBFA13</t>
   </si>
   <si>
@@ -3868,12 +3868,12 @@
     <t>2012+ Kenya Emergency Humanitarian Response Plan</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2012-12-31</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>2012-01-01</t>
   </si>
   <si>
@@ -4249,12 +4249,12 @@
     <t>Afghanistan Humanitarian Action Plan 2010</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>2010-12-31</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
     <t>2010-01-01</t>
   </si>
   <si>
@@ -4459,12 +4459,12 @@
     <t>Afghanistan Humanitarian Action Plan 2009</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2009-12-31</t>
   </si>
   <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>2009-01-01</t>
   </si>
   <si>
@@ -4675,12 +4675,12 @@
     <t>Afghanistan Joint Appeal 2008: Humanitarian Consequences of Rise in Food Prices (February - June 2008)</t>
   </si>
   <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2008-06-30</t>
   </si>
   <si>
-    <t>2008</t>
-  </si>
-  <si>
     <t>2008-02-01</t>
   </si>
   <si>
@@ -4942,12 +4942,12 @@
     <t>Bolivia Flash Appeal 2007</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>2007-08-21</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
     <t>2007-02-22</t>
   </si>
   <si>
@@ -5248,12 +5248,12 @@
     <t>Afghanistan Drought Joint Appeal 2006</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2006-12-31</t>
   </si>
   <si>
-    <t>2006</t>
-  </si>
-  <si>
     <t>2006-07-01</t>
   </si>
   <si>
@@ -5503,12 +5503,12 @@
     <t>Angola Marburg VHF 2005</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>2005-06-30</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>2005-04-01</t>
   </si>
   <si>
@@ -5710,12 +5710,12 @@
     <t>Afghanistan UN-Government Drought Appeal 2004</t>
   </si>
   <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2004-12-31</t>
   </si>
   <si>
-    <t>2004</t>
-  </si>
-  <si>
     <t>2004-09-01</t>
   </si>
   <si>
@@ -5956,12 +5956,12 @@
     <t>Afghanistan TAPA 2003</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2003-12-31</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
     <t>2003-01-01</t>
   </si>
   <si>
@@ -6175,12 +6175,12 @@
     <t>Afghanistan 2002 (ITAP for the Afghan People)</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2002-12-31</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>2001-10-01</t>
   </si>
   <si>
@@ -6361,12 +6361,12 @@
     <t>Afghanistan 2001</t>
   </si>
   <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>2001-09-30</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>2001-01-01</t>
   </si>
   <si>
@@ -6511,10 +6511,10 @@
     <t>Angola 2000</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>2000-12-31</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>2000-01-01</t>
@@ -7043,13 +7043,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -7273,13 +7273,13 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -7296,13 +7296,13 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -7342,13 +7342,13 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -7388,13 +7388,13 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -7503,13 +7503,13 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
         <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -7894,13 +7894,13 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
         <v>55</v>
-      </c>
-      <c r="E41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -7940,13 +7940,13 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
         <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -7963,13 +7963,13 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -8035,7 +8035,7 @@
         <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
         <v>111</v>
@@ -8081,7 +8081,7 @@
         <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
         <v>111</v>
@@ -8334,7 +8334,7 @@
         <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
         <v>111</v>
@@ -8377,13 +8377,13 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
         <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="G62" t="s">
         <v>112</v>
@@ -8400,13 +8400,13 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G63" t="s">
         <v>112</v>
@@ -8469,13 +8469,13 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" t="s">
         <v>154</v>
-      </c>
-      <c r="E66" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" t="s">
-        <v>111</v>
       </c>
       <c r="G66" t="s">
         <v>162</v>
@@ -8564,7 +8564,7 @@
         <v>110</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F70" t="s">
         <v>111</v>
@@ -8633,7 +8633,7 @@
         <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
         <v>111</v>
@@ -9070,7 +9070,7 @@
         <v>110</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
         <v>111</v>
@@ -9507,7 +9507,7 @@
         <v>229</v>
       </c>
       <c r="E111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F111" t="s">
         <v>230</v>
@@ -9596,13 +9596,13 @@
         <v>9</v>
       </c>
       <c r="D115" t="s">
+        <v>229</v>
+      </c>
+      <c r="E115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" t="s">
         <v>272</v>
-      </c>
-      <c r="E115" t="s">
-        <v>20</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="s">
         <v>273</v>
@@ -9619,13 +9619,13 @@
         <v>9</v>
       </c>
       <c r="D116" t="s">
+        <v>229</v>
+      </c>
+      <c r="E116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" t="s">
         <v>276</v>
-      </c>
-      <c r="E116" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="s">
         <v>277</v>
@@ -9734,13 +9734,13 @@
         <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="E121" t="s">
         <v>25</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="G121" t="s">
         <v>231</v>
@@ -9757,13 +9757,13 @@
         <v>9</v>
       </c>
       <c r="D122" t="s">
+        <v>229</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" t="s">
         <v>272</v>
-      </c>
-      <c r="E122" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" t="s">
-        <v>230</v>
       </c>
       <c r="G122" t="s">
         <v>231</v>
@@ -9964,13 +9964,13 @@
         <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="E131" t="s">
         <v>16</v>
       </c>
       <c r="F131" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="G131" t="s">
         <v>308</v>
@@ -10010,13 +10010,13 @@
         <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="E133" t="s">
         <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="G133" t="s">
         <v>313</v>
@@ -10056,13 +10056,13 @@
         <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="E135" t="s">
         <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="G135" t="s">
         <v>318</v>
@@ -10401,13 +10401,13 @@
         <v>9</v>
       </c>
       <c r="D150" t="s">
+        <v>335</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" t="s">
         <v>352</v>
-      </c>
-      <c r="E150" t="s">
-        <v>20</v>
-      </c>
-      <c r="F150" t="s">
-        <v>336</v>
       </c>
       <c r="G150" t="s">
         <v>353</v>
@@ -10516,13 +10516,13 @@
         <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="E155" t="s">
         <v>34</v>
       </c>
       <c r="F155" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="G155" t="s">
         <v>365</v>
@@ -10631,13 +10631,13 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="E160" t="s">
         <v>34</v>
       </c>
       <c r="F160" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="G160" t="s">
         <v>337</v>
@@ -10657,7 +10657,7 @@
         <v>335</v>
       </c>
       <c r="E161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F161" t="s">
         <v>336</v>
@@ -10723,13 +10723,13 @@
         <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="E164" t="s">
         <v>34</v>
       </c>
       <c r="F164" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="G164" t="s">
         <v>386</v>
@@ -10769,13 +10769,13 @@
         <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="E166" t="s">
         <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="G166" t="s">
         <v>392</v>
@@ -10910,7 +10910,7 @@
         <v>335</v>
       </c>
       <c r="E172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F172" t="s">
         <v>336</v>
@@ -10930,13 +10930,13 @@
         <v>182</v>
       </c>
       <c r="D173" t="s">
+        <v>335</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" t="s">
         <v>407</v>
-      </c>
-      <c r="E173" t="s">
-        <v>20</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="s">
         <v>405</v>
@@ -10953,13 +10953,13 @@
         <v>9</v>
       </c>
       <c r="D174" t="s">
+        <v>335</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" t="s">
         <v>410</v>
-      </c>
-      <c r="E174" t="s">
-        <v>20</v>
-      </c>
-      <c r="F174" t="s">
-        <v>336</v>
       </c>
       <c r="G174" t="s">
         <v>411</v>
@@ -11140,7 +11140,7 @@
         <v>335</v>
       </c>
       <c r="E182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F182" t="s">
         <v>336</v>
@@ -11298,13 +11298,13 @@
         <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>444</v>
+        <v>335</v>
       </c>
       <c r="E189" t="s">
         <v>16</v>
       </c>
       <c r="F189" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="G189" t="s">
         <v>439</v>
@@ -11666,13 +11666,13 @@
         <v>182</v>
       </c>
       <c r="D205" t="s">
-        <v>335</v>
+        <v>451</v>
       </c>
       <c r="E205" t="s">
         <v>25</v>
       </c>
       <c r="F205" t="s">
-        <v>452</v>
+        <v>336</v>
       </c>
       <c r="G205" t="s">
         <v>479</v>
@@ -11689,13 +11689,13 @@
         <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="E206" t="s">
         <v>34</v>
       </c>
       <c r="F206" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="G206" t="s">
         <v>485</v>
@@ -11758,13 +11758,13 @@
         <v>182</v>
       </c>
       <c r="D209" t="s">
-        <v>335</v>
+        <v>451</v>
       </c>
       <c r="E209" t="s">
         <v>25</v>
       </c>
       <c r="F209" t="s">
-        <v>452</v>
+        <v>336</v>
       </c>
       <c r="G209" t="s">
         <v>479</v>
@@ -11781,13 +11781,13 @@
         <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="E210" t="s">
         <v>34</v>
       </c>
       <c r="F210" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="G210" t="s">
         <v>495</v>
@@ -11827,13 +11827,13 @@
         <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="E212" t="s">
         <v>34</v>
       </c>
       <c r="F212" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="G212" t="s">
         <v>501</v>
@@ -11873,13 +11873,13 @@
         <v>182</v>
       </c>
       <c r="D214" t="s">
-        <v>335</v>
+        <v>451</v>
       </c>
       <c r="E214" t="s">
         <v>25</v>
       </c>
       <c r="F214" t="s">
-        <v>452</v>
+        <v>336</v>
       </c>
       <c r="G214" t="s">
         <v>479</v>
@@ -11942,13 +11942,13 @@
         <v>9</v>
       </c>
       <c r="D217" t="s">
+        <v>451</v>
+      </c>
+      <c r="E217" t="s">
+        <v>19</v>
+      </c>
+      <c r="F217" t="s">
         <v>513</v>
-      </c>
-      <c r="E217" t="s">
-        <v>20</v>
-      </c>
-      <c r="F217" t="s">
-        <v>452</v>
       </c>
       <c r="G217" t="s">
         <v>514</v>
@@ -11988,13 +11988,13 @@
         <v>182</v>
       </c>
       <c r="D219" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="E219" t="s">
         <v>34</v>
       </c>
       <c r="F219" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="G219" t="s">
         <v>456</v>
@@ -12106,7 +12106,7 @@
         <v>451</v>
       </c>
       <c r="E224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F224" t="s">
         <v>452</v>
@@ -12129,7 +12129,7 @@
         <v>451</v>
       </c>
       <c r="E225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F225" t="s">
         <v>452</v>
@@ -12221,7 +12221,7 @@
         <v>451</v>
       </c>
       <c r="E229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F229" t="s">
         <v>452</v>
@@ -12589,7 +12589,7 @@
         <v>570</v>
       </c>
       <c r="E245" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F245" t="s">
         <v>571</v>
@@ -12635,7 +12635,7 @@
         <v>570</v>
       </c>
       <c r="E247" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F247" t="s">
         <v>571</v>
@@ -12727,7 +12727,7 @@
         <v>570</v>
       </c>
       <c r="E251" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F251" t="s">
         <v>571</v>
@@ -12770,13 +12770,13 @@
         <v>9</v>
       </c>
       <c r="D253" t="s">
-        <v>456</v>
+        <v>570</v>
       </c>
       <c r="E253" t="s">
         <v>25</v>
       </c>
       <c r="F253" t="s">
-        <v>571</v>
+        <v>456</v>
       </c>
       <c r="G253" t="s">
         <v>593</v>
@@ -12842,7 +12842,7 @@
         <v>570</v>
       </c>
       <c r="E256" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F256" t="s">
         <v>571</v>
@@ -12865,7 +12865,7 @@
         <v>570</v>
       </c>
       <c r="E257" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F257" t="s">
         <v>571</v>
@@ -12954,13 +12954,13 @@
         <v>9</v>
       </c>
       <c r="D261" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="E261" t="s">
         <v>34</v>
       </c>
       <c r="F261" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="G261" t="s">
         <v>612</v>
@@ -12980,7 +12980,7 @@
         <v>570</v>
       </c>
       <c r="E262" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F262" t="s">
         <v>571</v>
@@ -13003,7 +13003,7 @@
         <v>570</v>
       </c>
       <c r="E263" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F263" t="s">
         <v>571</v>
@@ -13026,7 +13026,7 @@
         <v>570</v>
       </c>
       <c r="E264" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F264" t="s">
         <v>571</v>
@@ -13049,7 +13049,7 @@
         <v>570</v>
       </c>
       <c r="E265" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F265" t="s">
         <v>571</v>
@@ -13095,7 +13095,7 @@
         <v>570</v>
       </c>
       <c r="E267" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F267" t="s">
         <v>571</v>
@@ -13118,7 +13118,7 @@
         <v>570</v>
       </c>
       <c r="E268" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F268" t="s">
         <v>571</v>
@@ -13141,7 +13141,7 @@
         <v>570</v>
       </c>
       <c r="E269" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F269" t="s">
         <v>571</v>
@@ -13164,7 +13164,7 @@
         <v>570</v>
       </c>
       <c r="E270" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F270" t="s">
         <v>571</v>
@@ -13210,7 +13210,7 @@
         <v>570</v>
       </c>
       <c r="E272" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F272" t="s">
         <v>571</v>
@@ -13256,7 +13256,7 @@
         <v>570</v>
       </c>
       <c r="E274" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F274" t="s">
         <v>571</v>
@@ -13279,7 +13279,7 @@
         <v>570</v>
       </c>
       <c r="E275" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F275" t="s">
         <v>571</v>
@@ -13299,13 +13299,13 @@
         <v>9</v>
       </c>
       <c r="D276" t="s">
-        <v>644</v>
+        <v>570</v>
       </c>
       <c r="E276" t="s">
         <v>34</v>
       </c>
       <c r="F276" t="s">
-        <v>571</v>
+        <v>644</v>
       </c>
       <c r="G276" t="s">
         <v>645</v>
@@ -13325,7 +13325,7 @@
         <v>570</v>
       </c>
       <c r="E277" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F277" t="s">
         <v>571</v>
@@ -13345,13 +13345,13 @@
         <v>9</v>
       </c>
       <c r="D278" t="s">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="E278" t="s">
         <v>34</v>
       </c>
       <c r="F278" t="s">
-        <v>571</v>
+        <v>650</v>
       </c>
       <c r="G278" t="s">
         <v>651</v>
@@ -13371,7 +13371,7 @@
         <v>570</v>
       </c>
       <c r="E279" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F279" t="s">
         <v>571</v>
@@ -13440,7 +13440,7 @@
         <v>570</v>
       </c>
       <c r="E282" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F282" t="s">
         <v>571</v>
@@ -13555,7 +13555,7 @@
         <v>570</v>
       </c>
       <c r="E287" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F287" t="s">
         <v>571</v>
@@ -13578,7 +13578,7 @@
         <v>570</v>
       </c>
       <c r="E288" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F288" t="s">
         <v>571</v>
@@ -13647,7 +13647,7 @@
         <v>570</v>
       </c>
       <c r="E291" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F291" t="s">
         <v>571</v>
@@ -13670,7 +13670,7 @@
         <v>570</v>
       </c>
       <c r="E292" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F292" t="s">
         <v>571</v>
@@ -13831,7 +13831,7 @@
         <v>570</v>
       </c>
       <c r="E299" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F299" t="s">
         <v>571</v>
@@ -13854,7 +13854,7 @@
         <v>570</v>
       </c>
       <c r="E300" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F300" t="s">
         <v>571</v>
@@ -13877,7 +13877,7 @@
         <v>570</v>
       </c>
       <c r="E301" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F301" t="s">
         <v>571</v>
@@ -13923,7 +13923,7 @@
         <v>570</v>
       </c>
       <c r="E303" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F303" t="s">
         <v>571</v>
@@ -13989,13 +13989,13 @@
         <v>9</v>
       </c>
       <c r="D306" t="s">
+        <v>570</v>
+      </c>
+      <c r="E306" t="s">
+        <v>19</v>
+      </c>
+      <c r="F306" t="s">
         <v>611</v>
-      </c>
-      <c r="E306" t="s">
-        <v>20</v>
-      </c>
-      <c r="F306" t="s">
-        <v>571</v>
       </c>
       <c r="G306" t="s">
         <v>708</v>
@@ -14015,7 +14015,7 @@
         <v>570</v>
       </c>
       <c r="E307" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F307" t="s">
         <v>571</v>
@@ -14107,7 +14107,7 @@
         <v>715</v>
       </c>
       <c r="E311" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F311" t="s">
         <v>716</v>
@@ -14130,7 +14130,7 @@
         <v>715</v>
       </c>
       <c r="E312" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F312" t="s">
         <v>716</v>
@@ -14268,7 +14268,7 @@
         <v>715</v>
       </c>
       <c r="E318" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F318" t="s">
         <v>716</v>
@@ -14360,7 +14360,7 @@
         <v>715</v>
       </c>
       <c r="E322" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F322" t="s">
         <v>716</v>
@@ -14403,13 +14403,13 @@
         <v>9</v>
       </c>
       <c r="D324" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="E324" t="s">
         <v>34</v>
       </c>
       <c r="F324" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="G324" t="s">
         <v>717</v>
@@ -14541,13 +14541,13 @@
         <v>9</v>
       </c>
       <c r="D330" t="s">
-        <v>762</v>
+        <v>715</v>
       </c>
       <c r="E330" t="s">
         <v>25</v>
       </c>
       <c r="F330" t="s">
-        <v>716</v>
+        <v>762</v>
       </c>
       <c r="G330" t="s">
         <v>717</v>
@@ -14567,7 +14567,7 @@
         <v>715</v>
       </c>
       <c r="E331" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F331" t="s">
         <v>716</v>
@@ -14613,7 +14613,7 @@
         <v>715</v>
       </c>
       <c r="E333" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F333" t="s">
         <v>716</v>
@@ -14817,13 +14817,13 @@
         <v>9</v>
       </c>
       <c r="D342" t="s">
-        <v>787</v>
+        <v>715</v>
       </c>
       <c r="E342" t="s">
         <v>34</v>
       </c>
       <c r="F342" t="s">
-        <v>716</v>
+        <v>787</v>
       </c>
       <c r="G342" t="s">
         <v>788</v>
@@ -14840,13 +14840,13 @@
         <v>182</v>
       </c>
       <c r="D343" t="s">
-        <v>787</v>
+        <v>715</v>
       </c>
       <c r="E343" t="s">
         <v>34</v>
       </c>
       <c r="F343" t="s">
-        <v>716</v>
+        <v>787</v>
       </c>
       <c r="G343" t="s">
         <v>791</v>
@@ -14889,7 +14889,7 @@
         <v>794</v>
       </c>
       <c r="E345" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F345" t="s">
         <v>795</v>
@@ -14912,7 +14912,7 @@
         <v>794</v>
       </c>
       <c r="E346" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F346" t="s">
         <v>795</v>
@@ -15050,7 +15050,7 @@
         <v>794</v>
       </c>
       <c r="E352" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F352" t="s">
         <v>795</v>
@@ -15119,7 +15119,7 @@
         <v>794</v>
       </c>
       <c r="E355" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F355" t="s">
         <v>795</v>
@@ -15211,7 +15211,7 @@
         <v>794</v>
       </c>
       <c r="E359" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F359" t="s">
         <v>795</v>
@@ -15326,7 +15326,7 @@
         <v>794</v>
       </c>
       <c r="E364" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F364" t="s">
         <v>795</v>
@@ -15349,7 +15349,7 @@
         <v>794</v>
       </c>
       <c r="E365" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F365" t="s">
         <v>795</v>
@@ -15418,7 +15418,7 @@
         <v>794</v>
       </c>
       <c r="E368" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F368" t="s">
         <v>795</v>
@@ -15461,13 +15461,13 @@
         <v>9</v>
       </c>
       <c r="D370" t="s">
-        <v>852</v>
+        <v>794</v>
       </c>
       <c r="E370" t="s">
         <v>25</v>
       </c>
       <c r="F370" t="s">
-        <v>795</v>
+        <v>852</v>
       </c>
       <c r="G370" t="s">
         <v>796</v>
@@ -15484,13 +15484,13 @@
         <v>9</v>
       </c>
       <c r="D371" t="s">
-        <v>855</v>
+        <v>794</v>
       </c>
       <c r="E371" t="s">
         <v>25</v>
       </c>
       <c r="F371" t="s">
-        <v>795</v>
+        <v>855</v>
       </c>
       <c r="G371" t="s">
         <v>856</v>
@@ -15530,13 +15530,13 @@
         <v>182</v>
       </c>
       <c r="D373" t="s">
-        <v>855</v>
+        <v>794</v>
       </c>
       <c r="E373" t="s">
         <v>25</v>
       </c>
       <c r="F373" t="s">
-        <v>795</v>
+        <v>855</v>
       </c>
       <c r="G373" t="s">
         <v>856</v>
@@ -15809,7 +15809,7 @@
         <v>869</v>
       </c>
       <c r="E385" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F385" t="s">
         <v>870</v>
@@ -15875,13 +15875,13 @@
         <v>9</v>
       </c>
       <c r="D388" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="E388" t="s">
         <v>34</v>
       </c>
       <c r="F388" t="s">
-        <v>870</v>
+        <v>897</v>
       </c>
       <c r="G388" t="s">
         <v>898</v>
@@ -15901,7 +15901,7 @@
         <v>869</v>
       </c>
       <c r="E389" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F389" t="s">
         <v>870</v>
@@ -15970,7 +15970,7 @@
         <v>869</v>
       </c>
       <c r="E392" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F392" t="s">
         <v>870</v>
@@ -16013,13 +16013,13 @@
         <v>9</v>
       </c>
       <c r="D394" t="s">
-        <v>912</v>
+        <v>869</v>
       </c>
       <c r="E394" t="s">
         <v>34</v>
       </c>
       <c r="F394" t="s">
-        <v>870</v>
+        <v>912</v>
       </c>
       <c r="G394" t="s">
         <v>913</v>
@@ -16059,13 +16059,13 @@
         <v>9</v>
       </c>
       <c r="D396" t="s">
-        <v>918</v>
+        <v>869</v>
       </c>
       <c r="E396" t="s">
         <v>34</v>
       </c>
       <c r="F396" t="s">
-        <v>870</v>
+        <v>918</v>
       </c>
       <c r="G396" t="s">
         <v>919</v>
@@ -16128,13 +16128,13 @@
         <v>9</v>
       </c>
       <c r="D399" t="s">
-        <v>926</v>
+        <v>869</v>
       </c>
       <c r="E399" t="s">
         <v>34</v>
       </c>
       <c r="F399" t="s">
-        <v>870</v>
+        <v>926</v>
       </c>
       <c r="G399" t="s">
         <v>927</v>
@@ -16246,7 +16246,7 @@
         <v>869</v>
       </c>
       <c r="E404" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F404" t="s">
         <v>870</v>
@@ -16266,13 +16266,13 @@
         <v>9</v>
       </c>
       <c r="D405" t="s">
-        <v>940</v>
+        <v>869</v>
       </c>
       <c r="E405" t="s">
         <v>34</v>
       </c>
       <c r="F405" t="s">
-        <v>870</v>
+        <v>940</v>
       </c>
       <c r="G405" t="s">
         <v>941</v>
@@ -16522,7 +16522,7 @@
         <v>965</v>
       </c>
       <c r="E416" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F416" t="s">
         <v>966</v>
@@ -16752,7 +16752,7 @@
         <v>965</v>
       </c>
       <c r="E426" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F426" t="s">
         <v>966</v>
@@ -16772,13 +16772,13 @@
         <v>9</v>
       </c>
       <c r="D427" t="s">
-        <v>992</v>
+        <v>965</v>
       </c>
       <c r="E427" t="s">
         <v>34</v>
       </c>
       <c r="F427" t="s">
-        <v>966</v>
+        <v>992</v>
       </c>
       <c r="G427" t="s">
         <v>993</v>
@@ -16795,13 +16795,13 @@
         <v>9</v>
       </c>
       <c r="D428" t="s">
-        <v>996</v>
+        <v>965</v>
       </c>
       <c r="E428" t="s">
         <v>34</v>
       </c>
       <c r="F428" t="s">
-        <v>966</v>
+        <v>996</v>
       </c>
       <c r="G428" t="s">
         <v>997</v>
@@ -17048,13 +17048,13 @@
         <v>9</v>
       </c>
       <c r="D439" t="s">
-        <v>1023</v>
+        <v>965</v>
       </c>
       <c r="E439" t="s">
         <v>34</v>
       </c>
       <c r="F439" t="s">
-        <v>966</v>
+        <v>1023</v>
       </c>
       <c r="G439" t="s">
         <v>1024</v>
@@ -17370,13 +17370,13 @@
         <v>9</v>
       </c>
       <c r="D453" t="s">
-        <v>1053</v>
+        <v>965</v>
       </c>
       <c r="E453" t="s">
         <v>25</v>
       </c>
       <c r="F453" t="s">
-        <v>966</v>
+        <v>1053</v>
       </c>
       <c r="G453" t="s">
         <v>1054</v>
@@ -17557,7 +17557,7 @@
         <v>1057</v>
       </c>
       <c r="E461" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F461" t="s">
         <v>1059</v>
@@ -17600,13 +17600,13 @@
         <v>9</v>
       </c>
       <c r="D463" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
       <c r="E463" t="s">
         <v>34</v>
       </c>
       <c r="F463" t="s">
-        <v>1059</v>
+        <v>1079</v>
       </c>
       <c r="G463" t="s">
         <v>1080</v>
@@ -17646,13 +17646,13 @@
         <v>9</v>
       </c>
       <c r="D465" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
       <c r="E465" t="s">
         <v>34</v>
       </c>
       <c r="F465" t="s">
-        <v>1059</v>
+        <v>1079</v>
       </c>
       <c r="G465" t="s">
         <v>1086</v>
@@ -17669,13 +17669,13 @@
         <v>9</v>
       </c>
       <c r="D466" t="s">
-        <v>1089</v>
+        <v>1057</v>
       </c>
       <c r="E466" t="s">
         <v>34</v>
       </c>
       <c r="F466" t="s">
-        <v>1059</v>
+        <v>1089</v>
       </c>
       <c r="G466" t="s">
         <v>1090</v>
@@ -17715,13 +17715,13 @@
         <v>9</v>
       </c>
       <c r="D468" t="s">
-        <v>1095</v>
+        <v>1057</v>
       </c>
       <c r="E468" t="s">
         <v>34</v>
       </c>
       <c r="F468" t="s">
-        <v>1059</v>
+        <v>1095</v>
       </c>
       <c r="G468" t="s">
         <v>1096</v>
@@ -17807,13 +17807,13 @@
         <v>9</v>
       </c>
       <c r="D472" t="s">
-        <v>1079</v>
+        <v>1057</v>
       </c>
       <c r="E472" t="s">
         <v>34</v>
       </c>
       <c r="F472" t="s">
-        <v>1059</v>
+        <v>1079</v>
       </c>
       <c r="G472" t="s">
         <v>1105</v>
@@ -18244,13 +18244,13 @@
         <v>182</v>
       </c>
       <c r="D491" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="E491" t="s">
         <v>25</v>
       </c>
       <c r="F491" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
       <c r="G491" t="s">
         <v>1136</v>
@@ -18290,13 +18290,13 @@
         <v>9</v>
       </c>
       <c r="D493" t="s">
-        <v>1153</v>
+        <v>1134</v>
       </c>
       <c r="E493" t="s">
         <v>16</v>
       </c>
       <c r="F493" t="s">
-        <v>1135</v>
+        <v>1153</v>
       </c>
       <c r="G493" t="s">
         <v>1096</v>
@@ -18313,13 +18313,13 @@
         <v>182</v>
       </c>
       <c r="D494" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E494" t="s">
+        <v>19</v>
+      </c>
+      <c r="F494" t="s">
         <v>1153</v>
-      </c>
-      <c r="E494" t="s">
-        <v>20</v>
-      </c>
-      <c r="F494" t="s">
-        <v>1135</v>
       </c>
       <c r="G494" t="s">
         <v>1096</v>
@@ -18589,13 +18589,13 @@
         <v>9</v>
       </c>
       <c r="D506" t="s">
-        <v>1182</v>
+        <v>1134</v>
       </c>
       <c r="E506" t="s">
         <v>34</v>
       </c>
       <c r="F506" t="s">
-        <v>1135</v>
+        <v>1182</v>
       </c>
       <c r="G506" t="s">
         <v>1183</v>
@@ -18612,13 +18612,13 @@
         <v>9</v>
       </c>
       <c r="D507" t="s">
-        <v>1186</v>
+        <v>1134</v>
       </c>
       <c r="E507" t="s">
         <v>1058</v>
       </c>
       <c r="F507" t="s">
-        <v>1135</v>
+        <v>1186</v>
       </c>
       <c r="G507" t="s">
         <v>1187</v>
@@ -18635,13 +18635,13 @@
         <v>182</v>
       </c>
       <c r="D508" t="s">
-        <v>1190</v>
+        <v>1134</v>
       </c>
       <c r="E508" t="s">
         <v>25</v>
       </c>
       <c r="F508" t="s">
-        <v>1135</v>
+        <v>1190</v>
       </c>
       <c r="G508" t="s">
         <v>1187</v>
@@ -18658,13 +18658,13 @@
         <v>9</v>
       </c>
       <c r="D509" t="s">
-        <v>1193</v>
+        <v>1134</v>
       </c>
       <c r="E509" t="s">
         <v>34</v>
       </c>
       <c r="F509" t="s">
-        <v>1135</v>
+        <v>1193</v>
       </c>
       <c r="G509" t="s">
         <v>1194</v>
@@ -18707,7 +18707,7 @@
         <v>1134</v>
       </c>
       <c r="E511" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F511" t="s">
         <v>1135</v>
@@ -18727,13 +18727,13 @@
         <v>182</v>
       </c>
       <c r="D512" t="s">
-        <v>1202</v>
+        <v>1134</v>
       </c>
       <c r="E512" t="s">
         <v>25</v>
       </c>
       <c r="F512" t="s">
-        <v>1135</v>
+        <v>1202</v>
       </c>
       <c r="G512" t="s">
         <v>1136</v>
@@ -19098,7 +19098,7 @@
         <v>1230</v>
       </c>
       <c r="E528" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F528" t="s">
         <v>1232</v>
@@ -19118,13 +19118,13 @@
         <v>9</v>
       </c>
       <c r="D529" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="E529" t="s">
         <v>1231</v>
       </c>
       <c r="F529" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
       <c r="G529" t="s">
         <v>1139</v>
@@ -19259,7 +19259,7 @@
         <v>1230</v>
       </c>
       <c r="E535" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F535" t="s">
         <v>1232</v>
@@ -19282,7 +19282,7 @@
         <v>1230</v>
       </c>
       <c r="E536" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F536" t="s">
         <v>1232</v>
@@ -19348,13 +19348,13 @@
         <v>9</v>
       </c>
       <c r="D539" t="s">
-        <v>1193</v>
+        <v>1230</v>
       </c>
       <c r="E539" t="s">
         <v>1231</v>
       </c>
       <c r="F539" t="s">
-        <v>1232</v>
+        <v>1193</v>
       </c>
       <c r="G539" t="s">
         <v>1139</v>
@@ -19463,13 +19463,13 @@
         <v>9</v>
       </c>
       <c r="D544" t="s">
-        <v>1277</v>
+        <v>1230</v>
       </c>
       <c r="E544" t="s">
         <v>16</v>
       </c>
       <c r="F544" t="s">
-        <v>1232</v>
+        <v>1277</v>
       </c>
       <c r="G544" t="s">
         <v>1139</v>
@@ -19512,7 +19512,7 @@
         <v>1230</v>
       </c>
       <c r="E546" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F546" t="s">
         <v>1232</v>
@@ -19670,13 +19670,13 @@
         <v>9</v>
       </c>
       <c r="D553" t="s">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="E553" t="s">
         <v>1231</v>
       </c>
       <c r="F553" t="s">
-        <v>1285</v>
+        <v>1301</v>
       </c>
       <c r="G553" t="s">
         <v>1286</v>
@@ -19742,7 +19742,7 @@
         <v>1284</v>
       </c>
       <c r="E556" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F556" t="s">
         <v>1285</v>
@@ -19762,13 +19762,13 @@
         <v>9</v>
       </c>
       <c r="D557" t="s">
-        <v>1310</v>
+        <v>1284</v>
       </c>
       <c r="E557" t="s">
         <v>34</v>
       </c>
       <c r="F557" t="s">
-        <v>1285</v>
+        <v>1310</v>
       </c>
       <c r="G557" t="s">
         <v>1311</v>
@@ -19877,13 +19877,13 @@
         <v>9</v>
       </c>
       <c r="D562" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E562" t="s">
+        <v>19</v>
+      </c>
+      <c r="F562" t="s">
         <v>1323</v>
-      </c>
-      <c r="E562" t="s">
-        <v>20</v>
-      </c>
-      <c r="F562" t="s">
-        <v>1285</v>
       </c>
       <c r="G562" t="s">
         <v>1286</v>
@@ -19972,7 +19972,7 @@
         <v>1284</v>
       </c>
       <c r="E566" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F566" t="s">
         <v>1285</v>
@@ -20015,13 +20015,13 @@
         <v>9</v>
       </c>
       <c r="D568" t="s">
-        <v>1336</v>
+        <v>1284</v>
       </c>
       <c r="E568" t="s">
         <v>1231</v>
       </c>
       <c r="F568" t="s">
-        <v>1285</v>
+        <v>1336</v>
       </c>
       <c r="G568" t="s">
         <v>1337</v>
@@ -20107,13 +20107,13 @@
         <v>9</v>
       </c>
       <c r="D572" t="s">
-        <v>1230</v>
+        <v>1346</v>
       </c>
       <c r="E572" t="s">
         <v>1231</v>
       </c>
       <c r="F572" t="s">
-        <v>1346</v>
+        <v>1232</v>
       </c>
       <c r="G572" t="s">
         <v>1347</v>
@@ -20130,13 +20130,13 @@
         <v>9</v>
       </c>
       <c r="D573" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E573" t="s">
         <v>1231</v>
       </c>
       <c r="F573" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G573" t="s">
         <v>1347</v>
@@ -20153,13 +20153,13 @@
         <v>9</v>
       </c>
       <c r="D574" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E574" t="s">
         <v>1231</v>
       </c>
       <c r="F574" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G574" t="s">
         <v>1347</v>
@@ -20176,13 +20176,13 @@
         <v>9</v>
       </c>
       <c r="D575" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E575" t="s">
         <v>1231</v>
       </c>
       <c r="F575" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G575" t="s">
         <v>1347</v>
@@ -20199,13 +20199,13 @@
         <v>9</v>
       </c>
       <c r="D576" t="s">
-        <v>1284</v>
+        <v>1346</v>
       </c>
       <c r="E576" t="s">
         <v>1231</v>
       </c>
       <c r="F576" t="s">
-        <v>1346</v>
+        <v>1285</v>
       </c>
       <c r="G576" t="s">
         <v>1347</v>
@@ -20222,13 +20222,13 @@
         <v>9</v>
       </c>
       <c r="D577" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E577" t="s">
         <v>1231</v>
       </c>
       <c r="F577" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G577" t="s">
         <v>1359</v>
@@ -20245,13 +20245,13 @@
         <v>9</v>
       </c>
       <c r="D578" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
       <c r="E578" t="s">
         <v>34</v>
       </c>
       <c r="F578" t="s">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="G578" t="s">
         <v>1363</v>
@@ -20268,13 +20268,13 @@
         <v>9</v>
       </c>
       <c r="D579" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E579" t="s">
         <v>1231</v>
       </c>
       <c r="F579" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G579" t="s">
         <v>1366</v>
@@ -20291,13 +20291,13 @@
         <v>9</v>
       </c>
       <c r="D580" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E580" t="s">
+        <v>19</v>
+      </c>
+      <c r="F580" t="s">
         <v>1350</v>
-      </c>
-      <c r="E580" t="s">
-        <v>20</v>
-      </c>
-      <c r="F580" t="s">
-        <v>1346</v>
       </c>
       <c r="G580" t="s">
         <v>1369</v>
@@ -20314,13 +20314,13 @@
         <v>9</v>
       </c>
       <c r="D581" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E581" t="s">
+        <v>19</v>
+      </c>
+      <c r="F581" t="s">
         <v>1350</v>
-      </c>
-      <c r="E581" t="s">
-        <v>20</v>
-      </c>
-      <c r="F581" t="s">
-        <v>1346</v>
       </c>
       <c r="G581" t="s">
         <v>1347</v>
@@ -20337,13 +20337,13 @@
         <v>9</v>
       </c>
       <c r="D582" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="E582" t="s">
         <v>34</v>
       </c>
       <c r="F582" t="s">
-        <v>1346</v>
+        <v>1374</v>
       </c>
       <c r="G582" t="s">
         <v>1375</v>
@@ -20360,13 +20360,13 @@
         <v>9</v>
       </c>
       <c r="D583" t="s">
-        <v>1378</v>
+        <v>1346</v>
       </c>
       <c r="E583" t="s">
         <v>34</v>
       </c>
       <c r="F583" t="s">
-        <v>1346</v>
+        <v>1378</v>
       </c>
       <c r="G583" t="s">
         <v>1379</v>
@@ -20383,13 +20383,13 @@
         <v>9</v>
       </c>
       <c r="D584" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E584" t="s">
         <v>1231</v>
       </c>
       <c r="F584" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G584" t="s">
         <v>1347</v>
@@ -20406,13 +20406,13 @@
         <v>9</v>
       </c>
       <c r="D585" t="s">
-        <v>1384</v>
+        <v>1346</v>
       </c>
       <c r="E585" t="s">
         <v>34</v>
       </c>
       <c r="F585" t="s">
-        <v>1346</v>
+        <v>1384</v>
       </c>
       <c r="G585" t="s">
         <v>1385</v>
@@ -20429,13 +20429,13 @@
         <v>9</v>
       </c>
       <c r="D586" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E586" t="s">
         <v>16</v>
       </c>
       <c r="F586" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G586" t="s">
         <v>1388</v>
@@ -20452,13 +20452,13 @@
         <v>9</v>
       </c>
       <c r="D587" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E587" t="s">
         <v>1231</v>
       </c>
       <c r="F587" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G587" t="s">
         <v>1391</v>
@@ -20475,13 +20475,13 @@
         <v>9</v>
       </c>
       <c r="D588" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E588" t="s">
         <v>1231</v>
       </c>
       <c r="F588" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G588" t="s">
         <v>1347</v>
@@ -20498,13 +20498,13 @@
         <v>9</v>
       </c>
       <c r="D589" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E589" t="s">
         <v>34</v>
       </c>
       <c r="F589" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G589" t="s">
         <v>1347</v>
@@ -20521,13 +20521,13 @@
         <v>9</v>
       </c>
       <c r="D590" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E590" t="s">
+        <v>19</v>
+      </c>
+      <c r="F590" t="s">
         <v>1350</v>
-      </c>
-      <c r="E590" t="s">
-        <v>20</v>
-      </c>
-      <c r="F590" t="s">
-        <v>1346</v>
       </c>
       <c r="G590" t="s">
         <v>1347</v>
@@ -20544,13 +20544,13 @@
         <v>9</v>
       </c>
       <c r="D591" t="s">
-        <v>1400</v>
+        <v>1346</v>
       </c>
       <c r="E591" t="s">
         <v>1231</v>
       </c>
       <c r="F591" t="s">
-        <v>1346</v>
+        <v>1400</v>
       </c>
       <c r="G591" t="s">
         <v>1347</v>
@@ -20567,13 +20567,13 @@
         <v>9</v>
       </c>
       <c r="D592" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E592" t="s">
         <v>16</v>
       </c>
       <c r="F592" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G592" t="s">
         <v>1347</v>
@@ -20590,13 +20590,13 @@
         <v>9</v>
       </c>
       <c r="D593" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E593" t="s">
         <v>1231</v>
       </c>
       <c r="F593" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G593" t="s">
         <v>1347</v>
@@ -20613,13 +20613,13 @@
         <v>9</v>
       </c>
       <c r="D594" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E594" t="s">
         <v>1231</v>
       </c>
       <c r="F594" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G594" t="s">
         <v>1347</v>
@@ -20636,13 +20636,13 @@
         <v>9</v>
       </c>
       <c r="D595" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E595" t="s">
         <v>1231</v>
       </c>
       <c r="F595" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="G595" t="s">
         <v>1347</v>
@@ -20682,13 +20682,13 @@
         <v>9</v>
       </c>
       <c r="D597" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E597" t="s">
+        <v>19</v>
+      </c>
+      <c r="F597" t="s">
         <v>1416</v>
-      </c>
-      <c r="E597" t="s">
-        <v>20</v>
-      </c>
-      <c r="F597" t="s">
-        <v>1412</v>
       </c>
       <c r="G597" t="s">
         <v>1417</v>
@@ -20774,13 +20774,13 @@
         <v>9</v>
       </c>
       <c r="D601" t="s">
-        <v>1426</v>
+        <v>1411</v>
       </c>
       <c r="E601" t="s">
         <v>34</v>
       </c>
       <c r="F601" t="s">
-        <v>1412</v>
+        <v>1426</v>
       </c>
       <c r="G601" t="s">
         <v>1427</v>
@@ -20797,13 +20797,13 @@
         <v>9</v>
       </c>
       <c r="D602" t="s">
-        <v>1430</v>
+        <v>1411</v>
       </c>
       <c r="E602" t="s">
         <v>34</v>
       </c>
       <c r="F602" t="s">
-        <v>1412</v>
+        <v>1430</v>
       </c>
       <c r="G602" t="s">
         <v>1431</v>
@@ -20820,13 +20820,13 @@
         <v>9</v>
       </c>
       <c r="D603" t="s">
-        <v>1434</v>
+        <v>1411</v>
       </c>
       <c r="E603" t="s">
         <v>1231</v>
       </c>
       <c r="F603" t="s">
-        <v>1412</v>
+        <v>1434</v>
       </c>
       <c r="G603" t="s">
         <v>1435</v>
@@ -20869,7 +20869,7 @@
         <v>1411</v>
       </c>
       <c r="E605" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F605" t="s">
         <v>1412</v>
@@ -20912,13 +20912,13 @@
         <v>9</v>
       </c>
       <c r="D607" t="s">
-        <v>1445</v>
+        <v>1411</v>
       </c>
       <c r="E607" t="s">
         <v>34</v>
       </c>
       <c r="F607" t="s">
-        <v>1412</v>
+        <v>1445</v>
       </c>
       <c r="G607" t="s">
         <v>1446</v>
@@ -20935,13 +20935,13 @@
         <v>9</v>
       </c>
       <c r="D608" t="s">
-        <v>1388</v>
+        <v>1411</v>
       </c>
       <c r="E608" t="s">
         <v>1231</v>
       </c>
       <c r="F608" t="s">
-        <v>1412</v>
+        <v>1388</v>
       </c>
       <c r="G608" t="s">
         <v>1449</v>
@@ -20961,7 +20961,7 @@
         <v>1411</v>
       </c>
       <c r="E609" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F609" t="s">
         <v>1412</v>
@@ -20981,13 +20981,13 @@
         <v>9</v>
       </c>
       <c r="D610" t="s">
-        <v>1454</v>
+        <v>1411</v>
       </c>
       <c r="E610" t="s">
         <v>34</v>
       </c>
       <c r="F610" t="s">
-        <v>1412</v>
+        <v>1454</v>
       </c>
       <c r="G610" t="s">
         <v>1417</v>
@@ -21007,7 +21007,7 @@
         <v>1411</v>
       </c>
       <c r="E611" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F611" t="s">
         <v>1412</v>
@@ -21099,7 +21099,7 @@
         <v>1411</v>
       </c>
       <c r="E615" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F615" t="s">
         <v>1412</v>
@@ -21280,13 +21280,13 @@
         <v>9</v>
       </c>
       <c r="D623" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="E623" t="s">
         <v>34</v>
       </c>
       <c r="F623" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="G623" t="s">
         <v>1487</v>
@@ -21372,13 +21372,13 @@
         <v>9</v>
       </c>
       <c r="D627" t="s">
-        <v>1496</v>
+        <v>1481</v>
       </c>
       <c r="E627" t="s">
         <v>1231</v>
       </c>
       <c r="F627" t="s">
-        <v>1482</v>
+        <v>1496</v>
       </c>
       <c r="G627" t="s">
         <v>1483</v>
@@ -21464,13 +21464,13 @@
         <v>9</v>
       </c>
       <c r="D631" t="s">
-        <v>1506</v>
+        <v>1481</v>
       </c>
       <c r="E631" t="s">
         <v>34</v>
       </c>
       <c r="F631" t="s">
-        <v>1482</v>
+        <v>1506</v>
       </c>
       <c r="G631" t="s">
         <v>1499</v>
@@ -21487,13 +21487,13 @@
         <v>9</v>
       </c>
       <c r="D632" t="s">
-        <v>1509</v>
+        <v>1481</v>
       </c>
       <c r="E632" t="s">
         <v>34</v>
       </c>
       <c r="F632" t="s">
-        <v>1482</v>
+        <v>1509</v>
       </c>
       <c r="G632" t="s">
         <v>1510</v>
@@ -21510,13 +21510,13 @@
         <v>9</v>
       </c>
       <c r="D633" t="s">
-        <v>1513</v>
+        <v>1481</v>
       </c>
       <c r="E633" t="s">
         <v>34</v>
       </c>
       <c r="F633" t="s">
-        <v>1482</v>
+        <v>1513</v>
       </c>
       <c r="G633" t="s">
         <v>1514</v>
@@ -21536,7 +21536,7 @@
         <v>1481</v>
       </c>
       <c r="E634" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F634" t="s">
         <v>1482</v>
@@ -21579,13 +21579,13 @@
         <v>9</v>
       </c>
       <c r="D636" t="s">
-        <v>1522</v>
+        <v>1481</v>
       </c>
       <c r="E636" t="s">
         <v>34</v>
       </c>
       <c r="F636" t="s">
-        <v>1482</v>
+        <v>1522</v>
       </c>
       <c r="G636" t="s">
         <v>1523</v>
@@ -21671,13 +21671,13 @@
         <v>9</v>
       </c>
       <c r="D640" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E640" t="s">
+        <v>19</v>
+      </c>
+      <c r="F640" t="s">
         <v>1532</v>
-      </c>
-      <c r="E640" t="s">
-        <v>20</v>
-      </c>
-      <c r="F640" t="s">
-        <v>1482</v>
       </c>
       <c r="G640" t="s">
         <v>1533</v>
@@ -21697,7 +21697,7 @@
         <v>1481</v>
       </c>
       <c r="E641" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F641" t="s">
         <v>1482</v>
@@ -21720,7 +21720,7 @@
         <v>1481</v>
       </c>
       <c r="E642" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F642" t="s">
         <v>1482</v>
@@ -21858,7 +21858,7 @@
         <v>1553</v>
       </c>
       <c r="E648" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F648" t="s">
         <v>1554</v>
@@ -21878,13 +21878,13 @@
         <v>9</v>
       </c>
       <c r="D649" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E649" t="s">
+        <v>19</v>
+      </c>
+      <c r="F649" t="s">
         <v>1558</v>
-      </c>
-      <c r="E649" t="s">
-        <v>20</v>
-      </c>
-      <c r="F649" t="s">
-        <v>1554</v>
       </c>
       <c r="G649" t="s">
         <v>1559</v>
@@ -21901,13 +21901,13 @@
         <v>9</v>
       </c>
       <c r="D650" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="E650" t="s">
         <v>34</v>
       </c>
       <c r="F650" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="G650" t="s">
         <v>1555</v>
@@ -21924,13 +21924,13 @@
         <v>9</v>
       </c>
       <c r="D651" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E651" t="s">
         <v>1231</v>
       </c>
       <c r="F651" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G651" t="s">
         <v>1566</v>
@@ -21947,13 +21947,13 @@
         <v>9</v>
       </c>
       <c r="D652" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E652" t="s">
         <v>1231</v>
       </c>
       <c r="F652" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G652" t="s">
         <v>1566</v>
@@ -21970,13 +21970,13 @@
         <v>9</v>
       </c>
       <c r="D653" t="s">
-        <v>1481</v>
+        <v>1553</v>
       </c>
       <c r="E653" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F653" t="s">
-        <v>1554</v>
+        <v>1482</v>
       </c>
       <c r="G653" t="s">
         <v>1539</v>
@@ -21993,13 +21993,13 @@
         <v>9</v>
       </c>
       <c r="D654" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E654" t="s">
         <v>1231</v>
       </c>
       <c r="F654" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G654" t="s">
         <v>1566</v>
@@ -22016,13 +22016,13 @@
         <v>9</v>
       </c>
       <c r="D655" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E655" t="s">
         <v>1231</v>
       </c>
       <c r="F655" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G655" t="s">
         <v>1566</v>
@@ -22039,13 +22039,13 @@
         <v>9</v>
       </c>
       <c r="D656" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E656" t="s">
+        <v>19</v>
+      </c>
+      <c r="F656" t="s">
         <v>1577</v>
-      </c>
-      <c r="E656" t="s">
-        <v>20</v>
-      </c>
-      <c r="F656" t="s">
-        <v>1554</v>
       </c>
       <c r="G656" t="s">
         <v>1578</v>
@@ -22062,13 +22062,13 @@
         <v>9</v>
       </c>
       <c r="D657" t="s">
-        <v>1581</v>
+        <v>1553</v>
       </c>
       <c r="E657" t="s">
         <v>34</v>
       </c>
       <c r="F657" t="s">
-        <v>1554</v>
+        <v>1581</v>
       </c>
       <c r="G657" t="s">
         <v>1582</v>
@@ -22085,13 +22085,13 @@
         <v>9</v>
       </c>
       <c r="D658" t="s">
-        <v>1585</v>
+        <v>1553</v>
       </c>
       <c r="E658" t="s">
         <v>34</v>
       </c>
       <c r="F658" t="s">
-        <v>1554</v>
+        <v>1585</v>
       </c>
       <c r="G658" t="s">
         <v>1519</v>
@@ -22108,13 +22108,13 @@
         <v>9</v>
       </c>
       <c r="D659" t="s">
-        <v>1588</v>
+        <v>1553</v>
       </c>
       <c r="E659" t="s">
         <v>34</v>
       </c>
       <c r="F659" t="s">
-        <v>1554</v>
+        <v>1588</v>
       </c>
       <c r="G659" t="s">
         <v>1589</v>
@@ -22131,13 +22131,13 @@
         <v>9</v>
       </c>
       <c r="D660" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E660" t="s">
         <v>1231</v>
       </c>
       <c r="F660" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G660" t="s">
         <v>1566</v>
@@ -22154,13 +22154,13 @@
         <v>9</v>
       </c>
       <c r="D661" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="E661" t="s">
         <v>34</v>
       </c>
       <c r="F661" t="s">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="G661" t="s">
         <v>1566</v>
@@ -22177,13 +22177,13 @@
         <v>9</v>
       </c>
       <c r="D662" t="s">
-        <v>1596</v>
+        <v>1553</v>
       </c>
       <c r="E662" t="s">
         <v>34</v>
       </c>
       <c r="F662" t="s">
-        <v>1554</v>
+        <v>1596</v>
       </c>
       <c r="G662" t="s">
         <v>1597</v>
@@ -22200,13 +22200,13 @@
         <v>9</v>
       </c>
       <c r="D663" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E663" t="s">
+        <v>19</v>
+      </c>
+      <c r="F663" t="s">
         <v>1600</v>
-      </c>
-      <c r="E663" t="s">
-        <v>20</v>
-      </c>
-      <c r="F663" t="s">
-        <v>1554</v>
       </c>
       <c r="G663" t="s">
         <v>1539</v>
@@ -22223,13 +22223,13 @@
         <v>9</v>
       </c>
       <c r="D664" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E664" t="s">
         <v>1231</v>
       </c>
       <c r="F664" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G664" t="s">
         <v>1603</v>
@@ -22269,13 +22269,13 @@
         <v>9</v>
       </c>
       <c r="D666" t="s">
-        <v>1608</v>
+        <v>1553</v>
       </c>
       <c r="E666" t="s">
         <v>34</v>
       </c>
       <c r="F666" t="s">
-        <v>1554</v>
+        <v>1608</v>
       </c>
       <c r="G666" t="s">
         <v>1609</v>
@@ -22292,13 +22292,13 @@
         <v>9</v>
       </c>
       <c r="D667" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E667" t="s">
+        <v>19</v>
+      </c>
+      <c r="F667" t="s">
         <v>1565</v>
-      </c>
-      <c r="E667" t="s">
-        <v>20</v>
-      </c>
-      <c r="F667" t="s">
-        <v>1554</v>
       </c>
       <c r="G667" t="s">
         <v>1566</v>
@@ -22315,13 +22315,13 @@
         <v>9</v>
       </c>
       <c r="D668" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E668" t="s">
+        <v>19</v>
+      </c>
+      <c r="F668" t="s">
         <v>1585</v>
-      </c>
-      <c r="E668" t="s">
-        <v>20</v>
-      </c>
-      <c r="F668" t="s">
-        <v>1554</v>
       </c>
       <c r="G668" t="s">
         <v>1539</v>
@@ -22338,13 +22338,13 @@
         <v>9</v>
       </c>
       <c r="D669" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E669" t="s">
         <v>1231</v>
       </c>
       <c r="F669" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G669" t="s">
         <v>1566</v>
@@ -22361,13 +22361,13 @@
         <v>9</v>
       </c>
       <c r="D670" t="s">
-        <v>1618</v>
+        <v>1553</v>
       </c>
       <c r="E670" t="s">
         <v>34</v>
       </c>
       <c r="F670" t="s">
-        <v>1554</v>
+        <v>1618</v>
       </c>
       <c r="G670" t="s">
         <v>1555</v>
@@ -22384,13 +22384,13 @@
         <v>9</v>
       </c>
       <c r="D671" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E671" t="s">
+        <v>19</v>
+      </c>
+      <c r="F671" t="s">
         <v>1565</v>
-      </c>
-      <c r="E671" t="s">
-        <v>20</v>
-      </c>
-      <c r="F671" t="s">
-        <v>1554</v>
       </c>
       <c r="G671" t="s">
         <v>1566</v>
@@ -22407,13 +22407,13 @@
         <v>9</v>
       </c>
       <c r="D672" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E672" t="s">
         <v>1231</v>
       </c>
       <c r="F672" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G672" t="s">
         <v>1566</v>
@@ -22430,13 +22430,13 @@
         <v>9</v>
       </c>
       <c r="D673" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E673" t="s">
+        <v>19</v>
+      </c>
+      <c r="F673" t="s">
         <v>1588</v>
-      </c>
-      <c r="E673" t="s">
-        <v>20</v>
-      </c>
-      <c r="F673" t="s">
-        <v>1554</v>
       </c>
       <c r="G673" t="s">
         <v>1539</v>
@@ -22453,13 +22453,13 @@
         <v>9</v>
       </c>
       <c r="D674" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="E674" t="s">
         <v>34</v>
       </c>
       <c r="F674" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="G674" t="s">
         <v>1555</v>
@@ -22476,13 +22476,13 @@
         <v>9</v>
       </c>
       <c r="D675" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E675" t="s">
+        <v>19</v>
+      </c>
+      <c r="F675" t="s">
         <v>1565</v>
-      </c>
-      <c r="E675" t="s">
-        <v>20</v>
-      </c>
-      <c r="F675" t="s">
-        <v>1554</v>
       </c>
       <c r="G675" t="s">
         <v>1629</v>
@@ -22499,13 +22499,13 @@
         <v>9</v>
       </c>
       <c r="D676" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E676" t="s">
         <v>1231</v>
       </c>
       <c r="F676" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G676" t="s">
         <v>1566</v>
@@ -22522,13 +22522,13 @@
         <v>9</v>
       </c>
       <c r="D677" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E677" t="s">
         <v>1231</v>
       </c>
       <c r="F677" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G677" t="s">
         <v>1566</v>
@@ -22545,13 +22545,13 @@
         <v>9</v>
       </c>
       <c r="D678" t="s">
-        <v>1588</v>
+        <v>1553</v>
       </c>
       <c r="E678" t="s">
         <v>34</v>
       </c>
       <c r="F678" t="s">
-        <v>1554</v>
+        <v>1588</v>
       </c>
       <c r="G678" t="s">
         <v>1589</v>
@@ -22568,13 +22568,13 @@
         <v>9</v>
       </c>
       <c r="D679" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E679" t="s">
         <v>1231</v>
       </c>
       <c r="F679" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G679" t="s">
         <v>1566</v>
@@ -22591,13 +22591,13 @@
         <v>9</v>
       </c>
       <c r="D680" t="s">
-        <v>1565</v>
+        <v>1553</v>
       </c>
       <c r="E680" t="s">
         <v>1231</v>
       </c>
       <c r="F680" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
       <c r="G680" t="s">
         <v>1566</v>
@@ -22637,13 +22637,13 @@
         <v>9</v>
       </c>
       <c r="D682" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="E682" t="s">
         <v>34</v>
       </c>
       <c r="F682" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="G682" t="s">
         <v>1648</v>
@@ -22660,13 +22660,13 @@
         <v>9</v>
       </c>
       <c r="D683" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E683" t="s">
         <v>1231</v>
       </c>
       <c r="F683" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G683" t="s">
         <v>1652</v>
@@ -22683,13 +22683,13 @@
         <v>9</v>
       </c>
       <c r="D684" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E684" t="s">
         <v>1231</v>
       </c>
       <c r="F684" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G684" t="s">
         <v>1652</v>
@@ -22706,13 +22706,13 @@
         <v>9</v>
       </c>
       <c r="D685" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E685" t="s">
         <v>1231</v>
       </c>
       <c r="F685" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G685" t="s">
         <v>1652</v>
@@ -22729,13 +22729,13 @@
         <v>9</v>
       </c>
       <c r="D686" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E686" t="s">
         <v>1231</v>
       </c>
       <c r="F686" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G686" t="s">
         <v>1652</v>
@@ -22752,13 +22752,13 @@
         <v>9</v>
       </c>
       <c r="D687" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E687" t="s">
         <v>1231</v>
       </c>
       <c r="F687" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G687" t="s">
         <v>1652</v>
@@ -22775,13 +22775,13 @@
         <v>9</v>
       </c>
       <c r="D688" t="s">
-        <v>1663</v>
+        <v>1642</v>
       </c>
       <c r="E688" t="s">
         <v>34</v>
       </c>
       <c r="F688" t="s">
-        <v>1643</v>
+        <v>1663</v>
       </c>
       <c r="G688" t="s">
         <v>1648</v>
@@ -22798,13 +22798,13 @@
         <v>9</v>
       </c>
       <c r="D689" t="s">
-        <v>1666</v>
+        <v>1642</v>
       </c>
       <c r="E689" t="s">
         <v>34</v>
       </c>
       <c r="F689" t="s">
-        <v>1643</v>
+        <v>1666</v>
       </c>
       <c r="G689" t="s">
         <v>1667</v>
@@ -22821,13 +22821,13 @@
         <v>9</v>
       </c>
       <c r="D690" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E690" t="s">
         <v>16</v>
       </c>
       <c r="F690" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G690" t="s">
         <v>1652</v>
@@ -22844,13 +22844,13 @@
         <v>9</v>
       </c>
       <c r="D691" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E691" t="s">
+        <v>19</v>
+      </c>
+      <c r="F691" t="s">
         <v>1565</v>
-      </c>
-      <c r="E691" t="s">
-        <v>20</v>
-      </c>
-      <c r="F691" t="s">
-        <v>1643</v>
       </c>
       <c r="G691" t="s">
         <v>1672</v>
@@ -22867,13 +22867,13 @@
         <v>9</v>
       </c>
       <c r="D692" t="s">
-        <v>1675</v>
+        <v>1642</v>
       </c>
       <c r="E692" t="s">
         <v>34</v>
       </c>
       <c r="F692" t="s">
-        <v>1643</v>
+        <v>1675</v>
       </c>
       <c r="G692" t="s">
         <v>1676</v>
@@ -22890,13 +22890,13 @@
         <v>9</v>
       </c>
       <c r="D693" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E693" t="s">
+        <v>19</v>
+      </c>
+      <c r="F693" t="s">
         <v>1679</v>
-      </c>
-      <c r="E693" t="s">
-        <v>20</v>
-      </c>
-      <c r="F693" t="s">
-        <v>1643</v>
       </c>
       <c r="G693" t="s">
         <v>1680</v>
@@ -22913,13 +22913,13 @@
         <v>9</v>
       </c>
       <c r="D694" t="s">
-        <v>1683</v>
+        <v>1642</v>
       </c>
       <c r="E694" t="s">
         <v>34</v>
       </c>
       <c r="F694" t="s">
-        <v>1643</v>
+        <v>1683</v>
       </c>
       <c r="G694" t="s">
         <v>1684</v>
@@ -22936,13 +22936,13 @@
         <v>9</v>
       </c>
       <c r="D695" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E695" t="s">
         <v>1231</v>
       </c>
       <c r="F695" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G695" t="s">
         <v>1652</v>
@@ -22959,13 +22959,13 @@
         <v>9</v>
       </c>
       <c r="D696" t="s">
-        <v>1689</v>
+        <v>1642</v>
       </c>
       <c r="E696" t="s">
         <v>34</v>
       </c>
       <c r="F696" t="s">
-        <v>1643</v>
+        <v>1689</v>
       </c>
       <c r="G696" t="s">
         <v>1690</v>
@@ -22982,13 +22982,13 @@
         <v>9</v>
       </c>
       <c r="D697" t="s">
-        <v>1693</v>
+        <v>1642</v>
       </c>
       <c r="E697" t="s">
         <v>34</v>
       </c>
       <c r="F697" t="s">
-        <v>1643</v>
+        <v>1693</v>
       </c>
       <c r="G697" t="s">
         <v>1694</v>
@@ -23005,13 +23005,13 @@
         <v>9</v>
       </c>
       <c r="D698" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E698" t="s">
+        <v>19</v>
+      </c>
+      <c r="F698" t="s">
         <v>1651</v>
-      </c>
-      <c r="E698" t="s">
-        <v>20</v>
-      </c>
-      <c r="F698" t="s">
-        <v>1643</v>
       </c>
       <c r="G698" t="s">
         <v>1652</v>
@@ -23028,13 +23028,13 @@
         <v>9</v>
       </c>
       <c r="D699" t="s">
-        <v>1699</v>
+        <v>1642</v>
       </c>
       <c r="E699" t="s">
         <v>34</v>
       </c>
       <c r="F699" t="s">
-        <v>1643</v>
+        <v>1699</v>
       </c>
       <c r="G699" t="s">
         <v>1700</v>
@@ -23051,13 +23051,13 @@
         <v>9</v>
       </c>
       <c r="D700" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E700" t="s">
+        <v>19</v>
+      </c>
+      <c r="F700" t="s">
         <v>1651</v>
-      </c>
-      <c r="E700" t="s">
-        <v>20</v>
-      </c>
-      <c r="F700" t="s">
-        <v>1643</v>
       </c>
       <c r="G700" t="s">
         <v>1652</v>
@@ -23074,13 +23074,13 @@
         <v>9</v>
       </c>
       <c r="D701" t="s">
-        <v>1705</v>
+        <v>1642</v>
       </c>
       <c r="E701" t="s">
         <v>34</v>
       </c>
       <c r="F701" t="s">
-        <v>1643</v>
+        <v>1705</v>
       </c>
       <c r="G701" t="s">
         <v>1706</v>
@@ -23097,13 +23097,13 @@
         <v>9</v>
       </c>
       <c r="D702" t="s">
-        <v>1699</v>
+        <v>1642</v>
       </c>
       <c r="E702" t="s">
         <v>34</v>
       </c>
       <c r="F702" t="s">
-        <v>1643</v>
+        <v>1699</v>
       </c>
       <c r="G702" t="s">
         <v>1709</v>
@@ -23120,13 +23120,13 @@
         <v>9</v>
       </c>
       <c r="D703" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E703" t="s">
         <v>1231</v>
       </c>
       <c r="F703" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G703" t="s">
         <v>1652</v>
@@ -23143,13 +23143,13 @@
         <v>9</v>
       </c>
       <c r="D704" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E704" t="s">
+        <v>19</v>
+      </c>
+      <c r="F704" t="s">
         <v>1693</v>
-      </c>
-      <c r="E704" t="s">
-        <v>20</v>
-      </c>
-      <c r="F704" t="s">
-        <v>1643</v>
       </c>
       <c r="G704" t="s">
         <v>1714</v>
@@ -23166,13 +23166,13 @@
         <v>9</v>
       </c>
       <c r="D705" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E705" t="s">
         <v>1231</v>
       </c>
       <c r="F705" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G705" t="s">
         <v>1652</v>
@@ -23189,13 +23189,13 @@
         <v>9</v>
       </c>
       <c r="D706" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E706" t="s">
+        <v>19</v>
+      </c>
+      <c r="F706" t="s">
         <v>1693</v>
-      </c>
-      <c r="E706" t="s">
-        <v>20</v>
-      </c>
-      <c r="F706" t="s">
-        <v>1643</v>
       </c>
       <c r="G706" t="s">
         <v>1652</v>
@@ -23212,13 +23212,13 @@
         <v>9</v>
       </c>
       <c r="D707" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="E707" t="s">
         <v>34</v>
       </c>
       <c r="F707" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="G707" t="s">
         <v>1721</v>
@@ -23235,13 +23235,13 @@
         <v>9</v>
       </c>
       <c r="D708" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E708" t="s">
         <v>1231</v>
       </c>
       <c r="F708" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G708" t="s">
         <v>1652</v>
@@ -23258,13 +23258,13 @@
         <v>9</v>
       </c>
       <c r="D709" t="s">
-        <v>1726</v>
+        <v>1642</v>
       </c>
       <c r="E709" t="s">
         <v>34</v>
       </c>
       <c r="F709" t="s">
-        <v>1643</v>
+        <v>1726</v>
       </c>
       <c r="G709" t="s">
         <v>1727</v>
@@ -23281,13 +23281,13 @@
         <v>9</v>
       </c>
       <c r="D710" t="s">
-        <v>1693</v>
+        <v>1642</v>
       </c>
       <c r="E710" t="s">
         <v>1231</v>
       </c>
       <c r="F710" t="s">
-        <v>1643</v>
+        <v>1693</v>
       </c>
       <c r="G710" t="s">
         <v>1652</v>
@@ -23304,13 +23304,13 @@
         <v>9</v>
       </c>
       <c r="D711" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E711" t="s">
         <v>1231</v>
       </c>
       <c r="F711" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G711" t="s">
         <v>1652</v>
@@ -23327,13 +23327,13 @@
         <v>9</v>
       </c>
       <c r="D712" t="s">
-        <v>1666</v>
+        <v>1642</v>
       </c>
       <c r="E712" t="s">
         <v>34</v>
       </c>
       <c r="F712" t="s">
-        <v>1643</v>
+        <v>1666</v>
       </c>
       <c r="G712" t="s">
         <v>1667</v>
@@ -23350,13 +23350,13 @@
         <v>9</v>
       </c>
       <c r="D713" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E713" t="s">
         <v>1231</v>
       </c>
       <c r="F713" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G713" t="s">
         <v>1652</v>
@@ -23373,13 +23373,13 @@
         <v>9</v>
       </c>
       <c r="D714" t="s">
-        <v>1693</v>
+        <v>1642</v>
       </c>
       <c r="E714" t="s">
         <v>34</v>
       </c>
       <c r="F714" t="s">
-        <v>1643</v>
+        <v>1693</v>
       </c>
       <c r="G714" t="s">
         <v>1690</v>
@@ -23396,13 +23396,13 @@
         <v>9</v>
       </c>
       <c r="D715" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E715" t="s">
         <v>1231</v>
       </c>
       <c r="F715" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G715" t="s">
         <v>1652</v>
@@ -23419,13 +23419,13 @@
         <v>9</v>
       </c>
       <c r="D716" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="E716" t="s">
         <v>1231</v>
       </c>
       <c r="F716" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="G716" t="s">
         <v>1652</v>
@@ -23445,7 +23445,7 @@
         <v>1744</v>
       </c>
       <c r="E717" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F717" t="s">
         <v>1745</v>
@@ -23583,7 +23583,7 @@
         <v>1744</v>
       </c>
       <c r="E723" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F723" t="s">
         <v>1745</v>
@@ -23603,13 +23603,13 @@
         <v>9</v>
       </c>
       <c r="D724" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E724" t="s">
+        <v>19</v>
+      </c>
+      <c r="F724" t="s">
         <v>1762</v>
-      </c>
-      <c r="E724" t="s">
-        <v>20</v>
-      </c>
-      <c r="F724" t="s">
-        <v>1745</v>
       </c>
       <c r="G724" t="s">
         <v>1763</v>
@@ -23626,13 +23626,13 @@
         <v>9</v>
       </c>
       <c r="D725" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E725" t="s">
+        <v>19</v>
+      </c>
+      <c r="F725" t="s">
         <v>1766</v>
-      </c>
-      <c r="E725" t="s">
-        <v>20</v>
-      </c>
-      <c r="F725" t="s">
-        <v>1745</v>
       </c>
       <c r="G725" t="s">
         <v>1767</v>
@@ -23695,13 +23695,13 @@
         <v>9</v>
       </c>
       <c r="D728" t="s">
-        <v>1774</v>
+        <v>1744</v>
       </c>
       <c r="E728" t="s">
         <v>34</v>
       </c>
       <c r="F728" t="s">
-        <v>1745</v>
+        <v>1774</v>
       </c>
       <c r="G728" t="s">
         <v>1775</v>
@@ -23741,13 +23741,13 @@
         <v>9</v>
       </c>
       <c r="D730" t="s">
-        <v>1774</v>
+        <v>1744</v>
       </c>
       <c r="E730" t="s">
         <v>34</v>
       </c>
       <c r="F730" t="s">
-        <v>1745</v>
+        <v>1774</v>
       </c>
       <c r="G730" t="s">
         <v>1775</v>
@@ -23764,13 +23764,13 @@
         <v>9</v>
       </c>
       <c r="D731" t="s">
-        <v>1782</v>
+        <v>1744</v>
       </c>
       <c r="E731" t="s">
         <v>34</v>
       </c>
       <c r="F731" t="s">
-        <v>1745</v>
+        <v>1782</v>
       </c>
       <c r="G731" t="s">
         <v>1783</v>
@@ -23810,13 +23810,13 @@
         <v>9</v>
       </c>
       <c r="D733" t="s">
-        <v>1789</v>
+        <v>1744</v>
       </c>
       <c r="E733" t="s">
         <v>34</v>
       </c>
       <c r="F733" t="s">
-        <v>1745</v>
+        <v>1789</v>
       </c>
       <c r="G733" t="s">
         <v>1790</v>
@@ -23882,7 +23882,7 @@
         <v>1744</v>
       </c>
       <c r="E736" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F736" t="s">
         <v>1745</v>
@@ -23902,13 +23902,13 @@
         <v>9</v>
       </c>
       <c r="D737" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E737" t="s">
+        <v>19</v>
+      </c>
+      <c r="F737" t="s">
         <v>1651</v>
-      </c>
-      <c r="E737" t="s">
-        <v>20</v>
-      </c>
-      <c r="F737" t="s">
-        <v>1745</v>
       </c>
       <c r="G737" t="s">
         <v>1800</v>
@@ -23971,13 +23971,13 @@
         <v>9</v>
       </c>
       <c r="D740" t="s">
-        <v>1807</v>
+        <v>1744</v>
       </c>
       <c r="E740" t="s">
         <v>34</v>
       </c>
       <c r="F740" t="s">
-        <v>1745</v>
+        <v>1807</v>
       </c>
       <c r="G740" t="s">
         <v>1808</v>
@@ -23997,7 +23997,7 @@
         <v>1744</v>
       </c>
       <c r="E741" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F741" t="s">
         <v>1745</v>
@@ -24043,7 +24043,7 @@
         <v>1744</v>
       </c>
       <c r="E743" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F743" t="s">
         <v>1745</v>
@@ -24201,13 +24201,13 @@
         <v>9</v>
       </c>
       <c r="D750" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="E750" t="s">
         <v>34</v>
       </c>
       <c r="F750" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="G750" t="s">
         <v>1835</v>
@@ -24224,13 +24224,13 @@
         <v>9</v>
       </c>
       <c r="D751" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E751" t="s">
         <v>1231</v>
       </c>
       <c r="F751" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G751" t="s">
         <v>1839</v>
@@ -24247,13 +24247,13 @@
         <v>9</v>
       </c>
       <c r="D752" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E752" t="s">
         <v>1231</v>
       </c>
       <c r="F752" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G752" t="s">
         <v>1839</v>
@@ -24270,13 +24270,13 @@
         <v>9</v>
       </c>
       <c r="D753" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E753" t="s">
         <v>1231</v>
       </c>
       <c r="F753" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G753" t="s">
         <v>1839</v>
@@ -24293,13 +24293,13 @@
         <v>9</v>
       </c>
       <c r="D754" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E754" t="s">
         <v>1231</v>
       </c>
       <c r="F754" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G754" t="s">
         <v>1839</v>
@@ -24316,13 +24316,13 @@
         <v>9</v>
       </c>
       <c r="D755" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E755" t="s">
         <v>1231</v>
       </c>
       <c r="F755" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G755" t="s">
         <v>1839</v>
@@ -24339,13 +24339,13 @@
         <v>9</v>
       </c>
       <c r="D756" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E756" t="s">
         <v>1231</v>
       </c>
       <c r="F756" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G756" t="s">
         <v>1839</v>
@@ -24362,13 +24362,13 @@
         <v>9</v>
       </c>
       <c r="D757" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
       <c r="E757" t="s">
         <v>34</v>
       </c>
       <c r="F757" t="s">
-        <v>1830</v>
+        <v>1834</v>
       </c>
       <c r="G757" t="s">
         <v>1831</v>
@@ -24385,13 +24385,13 @@
         <v>9</v>
       </c>
       <c r="D758" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E758" t="s">
+        <v>19</v>
+      </c>
+      <c r="F758" t="s">
         <v>1838</v>
-      </c>
-      <c r="E758" t="s">
-        <v>20</v>
-      </c>
-      <c r="F758" t="s">
-        <v>1830</v>
       </c>
       <c r="G758" t="s">
         <v>1795</v>
@@ -24408,13 +24408,13 @@
         <v>9</v>
       </c>
       <c r="D759" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E759" t="s">
         <v>1231</v>
       </c>
       <c r="F759" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G759" t="s">
         <v>1839</v>
@@ -24431,13 +24431,13 @@
         <v>9</v>
       </c>
       <c r="D760" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E760" t="s">
         <v>1231</v>
       </c>
       <c r="F760" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G760" t="s">
         <v>1839</v>
@@ -24454,13 +24454,13 @@
         <v>9</v>
       </c>
       <c r="D761" t="s">
-        <v>1860</v>
+        <v>1829</v>
       </c>
       <c r="E761" t="s">
         <v>34</v>
       </c>
       <c r="F761" t="s">
-        <v>1830</v>
+        <v>1860</v>
       </c>
       <c r="G761" t="s">
         <v>1795</v>
@@ -24477,13 +24477,13 @@
         <v>9</v>
       </c>
       <c r="D762" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E762" t="s">
         <v>1231</v>
       </c>
       <c r="F762" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G762" t="s">
         <v>1839</v>
@@ -24500,13 +24500,13 @@
         <v>9</v>
       </c>
       <c r="D763" t="s">
-        <v>1865</v>
+        <v>1829</v>
       </c>
       <c r="E763" t="s">
         <v>34</v>
       </c>
       <c r="F763" t="s">
-        <v>1830</v>
+        <v>1865</v>
       </c>
       <c r="G763" t="s">
         <v>1866</v>
@@ -24546,13 +24546,13 @@
         <v>9</v>
       </c>
       <c r="D765" t="s">
-        <v>1860</v>
+        <v>1829</v>
       </c>
       <c r="E765" t="s">
         <v>34</v>
       </c>
       <c r="F765" t="s">
-        <v>1830</v>
+        <v>1860</v>
       </c>
       <c r="G765" t="s">
         <v>1871</v>
@@ -24569,13 +24569,13 @@
         <v>9</v>
       </c>
       <c r="D766" t="s">
-        <v>1874</v>
+        <v>1829</v>
       </c>
       <c r="E766" t="s">
         <v>34</v>
       </c>
       <c r="F766" t="s">
-        <v>1830</v>
+        <v>1874</v>
       </c>
       <c r="G766" t="s">
         <v>1875</v>
@@ -24592,13 +24592,13 @@
         <v>9</v>
       </c>
       <c r="D767" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E767" t="s">
         <v>1231</v>
       </c>
       <c r="F767" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G767" t="s">
         <v>1839</v>
@@ -24615,13 +24615,13 @@
         <v>9</v>
       </c>
       <c r="D768" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E768" t="s">
         <v>1231</v>
       </c>
       <c r="F768" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G768" t="s">
         <v>1839</v>
@@ -24638,13 +24638,13 @@
         <v>9</v>
       </c>
       <c r="D769" t="s">
-        <v>1882</v>
+        <v>1829</v>
       </c>
       <c r="E769" t="s">
         <v>34</v>
       </c>
       <c r="F769" t="s">
-        <v>1830</v>
+        <v>1882</v>
       </c>
       <c r="G769" t="s">
         <v>1883</v>
@@ -24661,13 +24661,13 @@
         <v>9</v>
       </c>
       <c r="D770" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E770" t="s">
         <v>1231</v>
       </c>
       <c r="F770" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G770" t="s">
         <v>1839</v>
@@ -24684,13 +24684,13 @@
         <v>9</v>
       </c>
       <c r="D771" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E771" t="s">
         <v>1231</v>
       </c>
       <c r="F771" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G771" t="s">
         <v>1839</v>
@@ -24707,13 +24707,13 @@
         <v>9</v>
       </c>
       <c r="D772" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E772" t="s">
         <v>1231</v>
       </c>
       <c r="F772" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G772" t="s">
         <v>1839</v>
@@ -24730,13 +24730,13 @@
         <v>9</v>
       </c>
       <c r="D773" t="s">
-        <v>1892</v>
+        <v>1829</v>
       </c>
       <c r="E773" t="s">
         <v>34</v>
       </c>
       <c r="F773" t="s">
-        <v>1830</v>
+        <v>1892</v>
       </c>
       <c r="G773" t="s">
         <v>1893</v>
@@ -24753,13 +24753,13 @@
         <v>9</v>
       </c>
       <c r="D774" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E774" t="s">
         <v>1231</v>
       </c>
       <c r="F774" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="G774" t="s">
         <v>1839</v>
@@ -24779,7 +24779,7 @@
         <v>1898</v>
       </c>
       <c r="E775" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F775" t="s">
         <v>1899</v>
@@ -24822,13 +24822,13 @@
         <v>9</v>
       </c>
       <c r="D777" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="E777" t="s">
         <v>34</v>
       </c>
       <c r="F777" t="s">
-        <v>1899</v>
+        <v>1906</v>
       </c>
       <c r="G777" t="s">
         <v>1907</v>
@@ -24845,13 +24845,13 @@
         <v>9</v>
       </c>
       <c r="D778" t="s">
-        <v>1910</v>
+        <v>1898</v>
       </c>
       <c r="E778" t="s">
         <v>34</v>
       </c>
       <c r="F778" t="s">
-        <v>1899</v>
+        <v>1910</v>
       </c>
       <c r="G778" t="s">
         <v>1911</v>
@@ -25075,13 +25075,13 @@
         <v>9</v>
       </c>
       <c r="D788" t="s">
-        <v>1933</v>
+        <v>1898</v>
       </c>
       <c r="E788" t="s">
         <v>34</v>
       </c>
       <c r="F788" t="s">
-        <v>1899</v>
+        <v>1933</v>
       </c>
       <c r="G788" t="s">
         <v>1900</v>
@@ -25121,13 +25121,13 @@
         <v>9</v>
       </c>
       <c r="D790" t="s">
-        <v>1938</v>
+        <v>1898</v>
       </c>
       <c r="E790" t="s">
         <v>34</v>
       </c>
       <c r="F790" t="s">
-        <v>1899</v>
+        <v>1938</v>
       </c>
       <c r="G790" t="s">
         <v>1918</v>
@@ -25144,13 +25144,13 @@
         <v>9</v>
       </c>
       <c r="D791" t="s">
-        <v>1933</v>
+        <v>1898</v>
       </c>
       <c r="E791" t="s">
         <v>34</v>
       </c>
       <c r="F791" t="s">
-        <v>1899</v>
+        <v>1933</v>
       </c>
       <c r="G791" t="s">
         <v>1941</v>
@@ -25190,13 +25190,13 @@
         <v>9</v>
       </c>
       <c r="D793" t="s">
-        <v>1946</v>
+        <v>1898</v>
       </c>
       <c r="E793" t="s">
         <v>34</v>
       </c>
       <c r="F793" t="s">
-        <v>1899</v>
+        <v>1946</v>
       </c>
       <c r="G793" t="s">
         <v>1903</v>
@@ -25259,13 +25259,13 @@
         <v>9</v>
       </c>
       <c r="D796" t="s">
-        <v>1954</v>
+        <v>1898</v>
       </c>
       <c r="E796" t="s">
         <v>34</v>
       </c>
       <c r="F796" t="s">
-        <v>1899</v>
+        <v>1954</v>
       </c>
       <c r="G796" t="s">
         <v>1955</v>
@@ -25282,13 +25282,13 @@
         <v>9</v>
       </c>
       <c r="D797" t="s">
-        <v>1958</v>
+        <v>1898</v>
       </c>
       <c r="E797" t="s">
         <v>34</v>
       </c>
       <c r="F797" t="s">
-        <v>1899</v>
+        <v>1958</v>
       </c>
       <c r="G797" t="s">
         <v>1959</v>
@@ -25515,7 +25515,7 @@
         <v>1980</v>
       </c>
       <c r="E807" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F807" t="s">
         <v>1981</v>
@@ -25581,13 +25581,13 @@
         <v>9</v>
       </c>
       <c r="D810" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="E810" t="s">
         <v>34</v>
       </c>
       <c r="F810" t="s">
-        <v>1981</v>
+        <v>1989</v>
       </c>
       <c r="G810" t="s">
         <v>1990</v>
@@ -25630,7 +25630,7 @@
         <v>1980</v>
       </c>
       <c r="E812" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F812" t="s">
         <v>1981</v>
@@ -25673,13 +25673,13 @@
         <v>9</v>
       </c>
       <c r="D814" t="s">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="E814" t="s">
         <v>34</v>
       </c>
       <c r="F814" t="s">
-        <v>1981</v>
+        <v>1999</v>
       </c>
       <c r="G814" t="s">
         <v>2000</v>
@@ -25811,13 +25811,13 @@
         <v>9</v>
       </c>
       <c r="D820" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E820" t="s">
+        <v>19</v>
+      </c>
+      <c r="F820" t="s">
         <v>2013</v>
-      </c>
-      <c r="E820" t="s">
-        <v>20</v>
-      </c>
-      <c r="F820" t="s">
-        <v>1981</v>
       </c>
       <c r="G820" t="s">
         <v>2014</v>
@@ -25834,13 +25834,13 @@
         <v>9</v>
       </c>
       <c r="D821" t="s">
-        <v>2017</v>
+        <v>1980</v>
       </c>
       <c r="E821" t="s">
         <v>1231</v>
       </c>
       <c r="F821" t="s">
-        <v>1981</v>
+        <v>2017</v>
       </c>
       <c r="G821" t="s">
         <v>2018</v>
@@ -25880,13 +25880,13 @@
         <v>9</v>
       </c>
       <c r="D823" t="s">
-        <v>2017</v>
+        <v>1980</v>
       </c>
       <c r="E823" t="s">
         <v>1231</v>
       </c>
       <c r="F823" t="s">
-        <v>1981</v>
+        <v>2017</v>
       </c>
       <c r="G823" t="s">
         <v>2018</v>
@@ -25903,13 +25903,13 @@
         <v>9</v>
       </c>
       <c r="D824" t="s">
-        <v>2017</v>
+        <v>1980</v>
       </c>
       <c r="E824" t="s">
         <v>1231</v>
       </c>
       <c r="F824" t="s">
-        <v>1981</v>
+        <v>2017</v>
       </c>
       <c r="G824" t="s">
         <v>2018</v>
@@ -25926,13 +25926,13 @@
         <v>9</v>
       </c>
       <c r="D825" t="s">
-        <v>2017</v>
+        <v>1980</v>
       </c>
       <c r="E825" t="s">
         <v>1231</v>
       </c>
       <c r="F825" t="s">
-        <v>1981</v>
+        <v>2017</v>
       </c>
       <c r="G825" t="s">
         <v>2018</v>
@@ -25949,13 +25949,13 @@
         <v>9</v>
       </c>
       <c r="D826" t="s">
-        <v>2017</v>
+        <v>1980</v>
       </c>
       <c r="E826" t="s">
         <v>1231</v>
       </c>
       <c r="F826" t="s">
-        <v>1981</v>
+        <v>2017</v>
       </c>
       <c r="G826" t="s">
         <v>2018</v>
@@ -26067,7 +26067,7 @@
         <v>1980</v>
       </c>
       <c r="E831" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F831" t="s">
         <v>1981</v>
@@ -26409,13 +26409,13 @@
         <v>9</v>
       </c>
       <c r="D846" t="s">
-        <v>1989</v>
+        <v>2053</v>
       </c>
       <c r="E846" t="s">
         <v>1231</v>
       </c>
       <c r="F846" t="s">
-        <v>2054</v>
+        <v>1989</v>
       </c>
       <c r="G846" t="s">
         <v>2073</v>
@@ -26432,13 +26432,13 @@
         <v>9</v>
       </c>
       <c r="D847" t="s">
-        <v>1989</v>
+        <v>2053</v>
       </c>
       <c r="E847" t="s">
         <v>1231</v>
       </c>
       <c r="F847" t="s">
-        <v>2054</v>
+        <v>1989</v>
       </c>
       <c r="G847" t="s">
         <v>2073</v>
@@ -26455,13 +26455,13 @@
         <v>9</v>
       </c>
       <c r="D848" t="s">
-        <v>1989</v>
+        <v>2053</v>
       </c>
       <c r="E848" t="s">
         <v>1231</v>
       </c>
       <c r="F848" t="s">
-        <v>2054</v>
+        <v>1989</v>
       </c>
       <c r="G848" t="s">
         <v>2073</v>
@@ -26478,13 +26478,13 @@
         <v>9</v>
       </c>
       <c r="D849" t="s">
-        <v>2080</v>
+        <v>2053</v>
       </c>
       <c r="E849" t="s">
         <v>1231</v>
       </c>
       <c r="F849" t="s">
-        <v>2054</v>
+        <v>2080</v>
       </c>
       <c r="G849" t="s">
         <v>2073</v>
@@ -26501,13 +26501,13 @@
         <v>9</v>
       </c>
       <c r="D850" t="s">
-        <v>1989</v>
+        <v>2053</v>
       </c>
       <c r="E850" t="s">
         <v>1231</v>
       </c>
       <c r="F850" t="s">
-        <v>2054</v>
+        <v>1989</v>
       </c>
       <c r="G850" t="s">
         <v>2073</v>
@@ -26524,13 +26524,13 @@
         <v>9</v>
       </c>
       <c r="D851" t="s">
-        <v>1989</v>
+        <v>2053</v>
       </c>
       <c r="E851" t="s">
         <v>1231</v>
       </c>
       <c r="F851" t="s">
-        <v>2054</v>
+        <v>1989</v>
       </c>
       <c r="G851" t="s">
         <v>2073</v>
@@ -26573,7 +26573,7 @@
         <v>2053</v>
       </c>
       <c r="E853" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F853" t="s">
         <v>2054</v>
@@ -26596,7 +26596,7 @@
         <v>2053</v>
       </c>
       <c r="E854" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F854" t="s">
         <v>2054</v>
@@ -26619,7 +26619,7 @@
         <v>2053</v>
       </c>
       <c r="E855" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F855" t="s">
         <v>2054</v>
@@ -26688,7 +26688,7 @@
         <v>2053</v>
       </c>
       <c r="E858" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F858" t="s">
         <v>2054</v>
@@ -26892,13 +26892,13 @@
         <v>9</v>
       </c>
       <c r="D867" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E867" t="s">
         <v>1231</v>
       </c>
       <c r="F867" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G867" t="s">
         <v>2117</v>
@@ -26915,13 +26915,13 @@
         <v>9</v>
       </c>
       <c r="D868" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E868" t="s">
         <v>1231</v>
       </c>
       <c r="F868" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G868" t="s">
         <v>2117</v>
@@ -26938,13 +26938,13 @@
         <v>9</v>
       </c>
       <c r="D869" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E869" t="s">
         <v>1231</v>
       </c>
       <c r="F869" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G869" t="s">
         <v>2117</v>
@@ -26961,13 +26961,13 @@
         <v>9</v>
       </c>
       <c r="D870" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E870" t="s">
         <v>1231</v>
       </c>
       <c r="F870" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G870" t="s">
         <v>2117</v>
@@ -26984,13 +26984,13 @@
         <v>9</v>
       </c>
       <c r="D871" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E871" t="s">
+        <v>19</v>
+      </c>
+      <c r="F871" t="s">
         <v>2120</v>
-      </c>
-      <c r="E871" t="s">
-        <v>20</v>
-      </c>
-      <c r="F871" t="s">
-        <v>2116</v>
       </c>
       <c r="G871" t="s">
         <v>2117</v>
@@ -27007,13 +27007,13 @@
         <v>9</v>
       </c>
       <c r="D872" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E872" t="s">
+        <v>19</v>
+      </c>
+      <c r="F872" t="s">
         <v>2120</v>
-      </c>
-      <c r="E872" t="s">
-        <v>20</v>
-      </c>
-      <c r="F872" t="s">
-        <v>2116</v>
       </c>
       <c r="G872" t="s">
         <v>2117</v>
@@ -27030,13 +27030,13 @@
         <v>9</v>
       </c>
       <c r="D873" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E873" t="s">
         <v>1231</v>
       </c>
       <c r="F873" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G873" t="s">
         <v>2117</v>
@@ -27053,13 +27053,13 @@
         <v>9</v>
       </c>
       <c r="D874" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E874" t="s">
         <v>1231</v>
       </c>
       <c r="F874" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G874" t="s">
         <v>2117</v>
@@ -27076,13 +27076,13 @@
         <v>9</v>
       </c>
       <c r="D875" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E875" t="s">
         <v>1231</v>
       </c>
       <c r="F875" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G875" t="s">
         <v>2117</v>
@@ -27099,13 +27099,13 @@
         <v>9</v>
       </c>
       <c r="D876" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E876" t="s">
+        <v>19</v>
+      </c>
+      <c r="F876" t="s">
         <v>2120</v>
-      </c>
-      <c r="E876" t="s">
-        <v>20</v>
-      </c>
-      <c r="F876" t="s">
-        <v>2116</v>
       </c>
       <c r="G876" t="s">
         <v>2117</v>
@@ -27122,13 +27122,13 @@
         <v>9</v>
       </c>
       <c r="D877" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E877" t="s">
         <v>1231</v>
       </c>
       <c r="F877" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G877" t="s">
         <v>2117</v>
@@ -27145,13 +27145,13 @@
         <v>9</v>
       </c>
       <c r="D878" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E878" t="s">
         <v>1231</v>
       </c>
       <c r="F878" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G878" t="s">
         <v>2117</v>
@@ -27168,13 +27168,13 @@
         <v>9</v>
       </c>
       <c r="D879" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E879" t="s">
         <v>1231</v>
       </c>
       <c r="F879" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G879" t="s">
         <v>2117</v>
@@ -27191,13 +27191,13 @@
         <v>9</v>
       </c>
       <c r="D880" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E880" t="s">
         <v>1231</v>
       </c>
       <c r="F880" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G880" t="s">
         <v>2117</v>
@@ -27214,13 +27214,13 @@
         <v>9</v>
       </c>
       <c r="D881" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E881" t="s">
         <v>1231</v>
       </c>
       <c r="F881" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G881" t="s">
         <v>2117</v>
@@ -27237,13 +27237,13 @@
         <v>9</v>
       </c>
       <c r="D882" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E882" t="s">
         <v>1231</v>
       </c>
       <c r="F882" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G882" t="s">
         <v>2117</v>
@@ -27260,13 +27260,13 @@
         <v>9</v>
       </c>
       <c r="D883" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E883" t="s">
         <v>1231</v>
       </c>
       <c r="F883" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G883" t="s">
         <v>2117</v>
@@ -27283,13 +27283,13 @@
         <v>9</v>
       </c>
       <c r="D884" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E884" t="s">
         <v>1231</v>
       </c>
       <c r="F884" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G884" t="s">
         <v>2117</v>
@@ -27306,13 +27306,13 @@
         <v>9</v>
       </c>
       <c r="D885" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E885" t="s">
         <v>1231</v>
       </c>
       <c r="F885" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G885" t="s">
         <v>2117</v>
@@ -27329,13 +27329,13 @@
         <v>9</v>
       </c>
       <c r="D886" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E886" t="s">
+        <v>19</v>
+      </c>
+      <c r="F886" t="s">
         <v>2120</v>
-      </c>
-      <c r="E886" t="s">
-        <v>20</v>
-      </c>
-      <c r="F886" t="s">
-        <v>2116</v>
       </c>
       <c r="G886" t="s">
         <v>2117</v>
@@ -27352,13 +27352,13 @@
         <v>9</v>
       </c>
       <c r="D887" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E887" t="s">
         <v>1231</v>
       </c>
       <c r="F887" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G887" t="s">
         <v>2117</v>
@@ -27375,13 +27375,13 @@
         <v>9</v>
       </c>
       <c r="D888" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E888" t="s">
         <v>1231</v>
       </c>
       <c r="F888" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="G888" t="s">
         <v>2117</v>
@@ -27720,13 +27720,13 @@
         <v>9</v>
       </c>
       <c r="D903" t="s">
-        <v>2165</v>
+        <v>2197</v>
       </c>
       <c r="E903" t="s">
         <v>1231</v>
       </c>
       <c r="F903" t="s">
-        <v>2197</v>
+        <v>2166</v>
       </c>
       <c r="G903" t="s">
         <v>2198</v>
@@ -27743,13 +27743,13 @@
         <v>9</v>
       </c>
       <c r="D904" t="s">
-        <v>2165</v>
+        <v>2197</v>
       </c>
       <c r="E904" t="s">
         <v>1231</v>
       </c>
       <c r="F904" t="s">
-        <v>2197</v>
+        <v>2166</v>
       </c>
       <c r="G904" t="s">
         <v>2201</v>
@@ -27766,13 +27766,13 @@
         <v>9</v>
       </c>
       <c r="D905" t="s">
-        <v>2165</v>
+        <v>2197</v>
       </c>
       <c r="E905" t="s">
         <v>1231</v>
       </c>
       <c r="F905" t="s">
-        <v>2197</v>
+        <v>2166</v>
       </c>
       <c r="G905" t="s">
         <v>2198</v>
